--- a/docs/source/concept_models/vivarium_census_synthdata/reference_person_update_relationship_mapping.xlsx
+++ b/docs/source/concept_models/vivarium_census_synthdata/reference_person_update_relationship_mapping.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="reference_person_update_relatio" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reference_person_update_relatio!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="42">
   <si>
     <t>relationship_to_old_reference_person</t>
   </si>
@@ -89,18 +89,12 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Could also be any kind of spouse</t>
-  </si>
-  <si>
     <t>Most likely some kind of spouse/partner; but we need to handle the (rare) case in ACS where there are &gt;2 parents</t>
   </si>
   <si>
     <t>Could be parent, but we are hoping that is tracked</t>
   </si>
   <si>
-    <t>Could be another kind of child</t>
-  </si>
-  <si>
     <t>This likely shouldn't happen; we assume it is due to a liberal use of "in-law"</t>
   </si>
   <si>
@@ -113,15 +107,9 @@
     <t>We assume they are a niece/nephew, hoping that if they were a child, they would be tracked</t>
   </si>
   <si>
-    <t>We assume that only the immediate family of your spouse is considered "relatives"</t>
-  </si>
-  <si>
     <t>Questionable how people code roommate vs other nonrelative</t>
   </si>
   <si>
-    <t>We assume throughout that foster children are labeled just like other types of children</t>
-  </si>
-  <si>
     <t>Could also be a child (we assume not, in hopes that if they were a child it would be tracked)</t>
   </si>
   <si>
@@ -129,6 +117,42 @@
   </si>
   <si>
     <t>Most likely some kind of spouse/partner, but we need to enforce only 1 spouse/partner</t>
+  </si>
+  <si>
+    <t>Could be adopted child</t>
+  </si>
+  <si>
+    <t>Could be half-sibling, which might not be reported as sibling</t>
+  </si>
+  <si>
+    <t>Might not be reported as sibling</t>
+  </si>
+  <si>
+    <t>Assuming foster children are not relatives</t>
+  </si>
+  <si>
+    <t>Assuming step-siblings are not reported as "brother or sister"</t>
+  </si>
+  <si>
+    <t>We assume that this occurs due to expansive definition of "stepchild"</t>
+  </si>
+  <si>
+    <t>Could be some kind of spouse/partner with expansive definition of "child-in-law", but we need to enforce only 1 spouse/partner</t>
+  </si>
+  <si>
+    <t>Could be parent</t>
+  </si>
+  <si>
+    <t>Could be some kind of spouse/partner, but we need to enforce only 1 spouse/partner</t>
+  </si>
+  <si>
+    <t>Assuming foster children are not relatives and "child-in-law" is not used for spouse of a foster child</t>
+  </si>
+  <si>
+    <t>Assuming foster children are not relatives, and not relatives of each other</t>
+  </si>
+  <si>
+    <t>Assuming foster children are not relatives, and not relatives of other nonrelatives</t>
   </si>
 </sst>
 </file>
@@ -170,127 +194,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -690,8 +594,8 @@
   <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -815,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -827,6 +731,9 @@
       </c>
       <c r="C11" t="s">
         <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -884,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -930,6 +837,9 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -962,6 +872,9 @@
       </c>
       <c r="C23" t="s">
         <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1019,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1085,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1097,6 +1010,9 @@
       </c>
       <c r="C35" t="s">
         <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1154,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1200,6 +1116,9 @@
       <c r="C44" t="s">
         <v>11</v>
       </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -1232,6 +1151,9 @@
       </c>
       <c r="C47" t="s">
         <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1310,6 +1232,9 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
@@ -1321,6 +1246,9 @@
       <c r="C55" t="s">
         <v>10</v>
       </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -1330,7 +1258,10 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1366,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1377,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1388,10 +1319,10 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1414,6 +1345,9 @@
       </c>
       <c r="C63" t="s">
         <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1424,7 +1358,10 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1492,6 +1429,9 @@
       <c r="C70" t="s">
         <v>10</v>
       </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -1503,6 +1443,9 @@
       <c r="C71" t="s">
         <v>10</v>
       </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -1512,7 +1455,10 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1548,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -1559,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -1570,10 +1516,10 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -1596,6 +1542,9 @@
       </c>
       <c r="C79" t="s">
         <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -1606,7 +1555,10 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -1641,6 +1593,9 @@
       <c r="C83" t="s">
         <v>11</v>
       </c>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -1663,6 +1618,9 @@
       <c r="C85" t="s">
         <v>11</v>
       </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -1696,6 +1654,9 @@
       <c r="C88" t="s">
         <v>10</v>
       </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -1730,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -1741,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -1752,10 +1713,10 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -1778,6 +1739,9 @@
       </c>
       <c r="C95" t="s">
         <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -1788,10 +1752,13 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -1802,7 +1769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -1810,10 +1777,10 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -1824,7 +1791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -1832,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -1846,7 +1813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +1824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -1868,7 +1835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -1879,7 +1846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -1890,7 +1857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -1901,7 +1868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -1912,7 +1879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -1920,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -1931,10 +1898,10 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -1945,7 +1912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -1955,8 +1922,11 @@
       <c r="C111" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -1964,7 +1934,10 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2052,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2063,7 +2036,10 @@
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -2077,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2099,7 +2075,7 @@
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -2110,7 +2086,7 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2133,6 +2109,9 @@
       </c>
       <c r="C127" t="s">
         <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2143,7 +2122,10 @@
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2212,7 +2194,7 @@
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -2225,6 +2207,9 @@
       <c r="C135" t="s">
         <v>15</v>
       </c>
+      <c r="D135" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
@@ -2270,7 +2255,7 @@
         <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2295,7 +2280,7 @@
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -2318,6 +2303,9 @@
       </c>
       <c r="C143" t="s">
         <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -2328,7 +2316,10 @@
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -2353,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -2367,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -2381,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -2395,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -2439,7 +2430,7 @@
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -2450,7 +2441,7 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -2475,7 +2466,7 @@
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -2486,7 +2477,7 @@
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -2509,6 +2500,9 @@
       </c>
       <c r="C159" t="s">
         <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -2519,7 +2513,10 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D160" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -2585,10 +2582,10 @@
         <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -2599,10 +2596,10 @@
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -2613,10 +2610,10 @@
         <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -2627,7 +2624,7 @@
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -2638,7 +2635,7 @@
         <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -2652,7 +2649,7 @@
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -2663,7 +2660,7 @@
         <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -2674,7 +2671,7 @@
         <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -2685,7 +2682,7 @@
         <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -2697,6 +2694,9 @@
       </c>
       <c r="C175" t="s">
         <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -2707,10 +2707,10 @@
         <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -2724,7 +2724,7 @@
         <v>18</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -2735,10 +2735,7 @@
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
-      </c>
-      <c r="D178" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -2760,10 +2757,7 @@
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
-      </c>
-      <c r="D180" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -2807,7 +2801,7 @@
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -2851,7 +2845,7 @@
         <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -2862,7 +2856,7 @@
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -2885,6 +2879,9 @@
       </c>
       <c r="C191" t="s">
         <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -2897,6 +2894,9 @@
       <c r="C192" t="s">
         <v>18</v>
       </c>
+      <c r="D192" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
@@ -2920,7 +2920,7 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -2934,7 +2934,7 @@
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -2948,7 +2948,7 @@
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -2962,7 +2962,7 @@
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -2976,7 +2976,7 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -2990,7 +2990,7 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -3004,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -3018,7 +3018,7 @@
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -3032,7 +3032,7 @@
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -3046,7 +3046,7 @@
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -3060,7 +3060,7 @@
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -3074,7 +3074,7 @@
         <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -3088,7 +3088,7 @@
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -3102,7 +3102,7 @@
         <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -3116,7 +3116,7 @@
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -3130,7 +3130,7 @@
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -3141,10 +3141,10 @@
         <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D210" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -3155,10 +3155,10 @@
         <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D211" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -3169,10 +3169,10 @@
         <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D212" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -3183,10 +3183,10 @@
         <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D213" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -3197,10 +3197,10 @@
         <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D214" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -3211,10 +3211,10 @@
         <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D215" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -3225,10 +3225,10 @@
         <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -3239,10 +3239,10 @@
         <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D217" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -3253,10 +3253,10 @@
         <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D218" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -3267,10 +3267,10 @@
         <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D219" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -3284,7 +3284,7 @@
         <v>18</v>
       </c>
       <c r="D220" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -3298,7 +3298,7 @@
         <v>18</v>
       </c>
       <c r="D221" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -3309,10 +3309,10 @@
         <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -3326,7 +3326,7 @@
         <v>16</v>
       </c>
       <c r="D223" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -3337,10 +3337,10 @@
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D224" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -3354,7 +3354,7 @@
         <v>18</v>
       </c>
       <c r="D225" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -3368,7 +3368,7 @@
         <v>18</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -3382,7 +3382,7 @@
         <v>18</v>
       </c>
       <c r="D227" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -3396,7 +3396,7 @@
         <v>18</v>
       </c>
       <c r="D228" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -3410,7 +3410,7 @@
         <v>18</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -3424,7 +3424,7 @@
         <v>18</v>
       </c>
       <c r="D230" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -3438,7 +3438,7 @@
         <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -3452,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -3466,7 +3466,7 @@
         <v>18</v>
       </c>
       <c r="D233" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -3480,7 +3480,7 @@
         <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -3494,7 +3494,7 @@
         <v>18</v>
       </c>
       <c r="D235" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -3508,7 +3508,7 @@
         <v>18</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -3522,7 +3522,7 @@
         <v>18</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -3536,7 +3536,7 @@
         <v>18</v>
       </c>
       <c r="D238" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -3550,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -3564,7 +3564,7 @@
         <v>18</v>
       </c>
       <c r="D240" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -3578,7 +3578,7 @@
         <v>18</v>
       </c>
       <c r="D241" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/source/concept_models/vivarium_census_synthdata/reference_person_update_relationship_mapping.xlsx
+++ b/docs/source/concept_models/vivarium_census_synthdata/reference_person_update_relationship_mapping.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="54">
   <si>
     <t>relationship_to_old_reference_person</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Could be some kind of spouse/partner with expansive definition of "child-in-law", but we need to enforce only 1 spouse/partner</t>
   </si>
   <si>
-    <t>Could be parent</t>
-  </si>
-  <si>
     <t>Could be some kind of spouse/partner, but we need to enforce only 1 spouse/partner</t>
   </si>
   <si>
@@ -153,6 +150,45 @@
   </si>
   <si>
     <t>Assuming foster children are not relatives, and not relatives of other nonrelatives</t>
+  </si>
+  <si>
+    <t>This likely shouldn't happen; we assume it is due to an expansive definition of "stepchild." Could also be adopted child</t>
+  </si>
+  <si>
+    <t>Grandparent</t>
+  </si>
+  <si>
+    <t>Aunt/uncle</t>
+  </si>
+  <si>
+    <t>Niece/nephew</t>
+  </si>
+  <si>
+    <t>Might not be true if half-siblings</t>
+  </si>
+  <si>
+    <t>We consider this relationship a grandparent/grandchild relationship, including at birth</t>
+  </si>
+  <si>
+    <t>We assume they do not have children with their unmarried partner; if they did, they would be a relative</t>
+  </si>
+  <si>
+    <t>Great-grandchild</t>
+  </si>
+  <si>
+    <t>Could be parent with expansive "grandchild" definition, but we are hoping that is tracked</t>
+  </si>
+  <si>
+    <t>Great-grandparent</t>
+  </si>
+  <si>
+    <t>NOT using expansive definition of "grandchild" -- parent-in-law should be direct grandparent of stepchild</t>
+  </si>
+  <si>
+    <t>We assume a second-parent adoption</t>
+  </si>
+  <si>
+    <t>Possibly biological child (second-parent adoption), but we can't be sure</t>
   </si>
 </sst>
 </file>
@@ -194,128 +230,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -595,7 +510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -791,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -907,7 +822,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -919,6 +837,9 @@
       </c>
       <c r="C27" t="s">
         <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1045,7 +966,10 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1057,6 +981,9 @@
       </c>
       <c r="C39" t="s">
         <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1070,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1274,6 +1201,9 @@
       <c r="C57" t="s">
         <v>15</v>
       </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -1285,6 +1215,9 @@
       <c r="C58" t="s">
         <v>15</v>
       </c>
+      <c r="D58" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
@@ -1308,7 +1241,10 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1471,6 +1407,9 @@
       <c r="C73" t="s">
         <v>15</v>
       </c>
+      <c r="D73" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -1482,6 +1421,9 @@
       <c r="C74" t="s">
         <v>15</v>
       </c>
+      <c r="D74" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -1505,7 +1447,10 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -1632,6 +1577,9 @@
       <c r="C86" t="s">
         <v>15</v>
       </c>
+      <c r="D86" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -1642,6 +1590,9 @@
       </c>
       <c r="C87" t="s">
         <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -1790,6 +1741,9 @@
       <c r="C99" t="s">
         <v>18</v>
       </c>
+      <c r="D99" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
@@ -1812,6 +1766,9 @@
       <c r="C101" t="s">
         <v>18</v>
       </c>
+      <c r="D101" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
@@ -1823,6 +1780,9 @@
       <c r="C102" t="s">
         <v>15</v>
       </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
@@ -1833,6 +1793,9 @@
       </c>
       <c r="C103" t="s">
         <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -1867,6 +1830,9 @@
       <c r="C106" t="s">
         <v>11</v>
       </c>
+      <c r="D106" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
@@ -1972,6 +1938,9 @@
       <c r="C115" t="s">
         <v>18</v>
       </c>
+      <c r="D115" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
@@ -1994,6 +1963,9 @@
       <c r="C117" t="s">
         <v>18</v>
       </c>
+      <c r="D117" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
@@ -2025,7 +1997,10 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2065,6 +2040,9 @@
       </c>
       <c r="C123" t="s">
         <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -2149,6 +2127,9 @@
       <c r="C130" t="s">
         <v>15</v>
       </c>
+      <c r="D130" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
@@ -2160,6 +2141,9 @@
       <c r="C131" t="s">
         <v>15</v>
       </c>
+      <c r="D131" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
@@ -2171,6 +2155,9 @@
       <c r="C132" t="s">
         <v>15</v>
       </c>
+      <c r="D132" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
@@ -2182,6 +2169,9 @@
       <c r="C133" t="s">
         <v>15</v>
       </c>
+      <c r="D133" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
@@ -2208,7 +2198,7 @@
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2221,6 +2211,9 @@
       <c r="C136" t="s">
         <v>15</v>
       </c>
+      <c r="D136" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
@@ -2267,6 +2260,9 @@
       </c>
       <c r="C140" t="s">
         <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2421,6 +2417,9 @@
       <c r="C152" t="s">
         <v>12</v>
       </c>
+      <c r="D152" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
@@ -2453,6 +2452,9 @@
       </c>
       <c r="C155" t="s">
         <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -2613,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -2710,7 +2712,7 @@
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -2748,6 +2750,9 @@
       <c r="C179" t="s">
         <v>18</v>
       </c>
+      <c r="D179" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
@@ -2770,6 +2775,9 @@
       <c r="C181" t="s">
         <v>18</v>
       </c>
+      <c r="D181" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
@@ -3340,7 +3348,7 @@
         <v>18</v>
       </c>
       <c r="D224" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -3354,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="D225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
